--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,69 +49,78 @@
     <t>die</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>sc</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>lower</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -130,82 +139,94 @@
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -563,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -703,7 +724,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -753,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -782,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>0.9302325581395349</v>
@@ -832,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9268929503916449</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,16 +924,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -932,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7843137254901961</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.775</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1032,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,16 +1074,16 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7364341085271318</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C12">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>380</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L12">
         <v>42</v>
       </c>
-      <c r="K12">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
       <c r="M12">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7297297297297297</v>
+        <v>0.7354497354497355</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.8875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L13">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7248677248677249</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C14">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.717948717948718</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,16 +1274,16 @@
         <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6949152542372882</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6944444444444444</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6442953020134228</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C18">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L18">
         <v>48</v>
       </c>
-      <c r="K18">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="L18">
-        <v>51</v>
-      </c>
       <c r="M18">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5333333333333333</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7764705882352941</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.509090909090909</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.509090909090909</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7384615384615385</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1600,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>0.7364016736401674</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L22">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1624,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.375</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1650,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.7291666666666666</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1674,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1682,13 +1703,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3506493506493507</v>
+        <v>0.425</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1700,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.7288135593220338</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L24">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M24">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1732,13 +1753,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3412698412698413</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C25">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D25">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1750,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.7254901960784313</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1774,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1782,13 +1803,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1715817694369973</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="C26">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D26">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1800,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>309</v>
+        <v>48</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.723404255319149</v>
+        <v>0.7364016736401674</v>
       </c>
       <c r="L26">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="M26">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1824,21 +1845,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.2091152815013405</v>
+      </c>
+      <c r="C27">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>78</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>295</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K27">
-        <v>0.7222222222222222</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1850,21 +1895,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>272</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.7192982456140351</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1876,21 +1945,45 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.009993552546744036</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>0.14</v>
+      </c>
+      <c r="F29">
+        <v>0.86</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3071</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.7078651685393258</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L29">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1902,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1928,21 +2021,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.625</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1954,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.589041095890411</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1980,15 +2073,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.5512820512820513</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="L33">
         <v>43</v>
@@ -2006,7 +2099,111 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="L34">
+        <v>44</v>
+      </c>
+      <c r="M34">
+        <v>44</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>0.559322033898305</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>0.515625</v>
+      </c>
+      <c r="L36">
+        <v>33</v>
+      </c>
+      <c r="M36">
+        <v>33</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
